--- a/SCIn-MES/Outputs/PAL_Participant_Data.xlsx
+++ b/SCIn-MES/Outputs/PAL_Participant_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <t>Include</t>
   </si>
   <si>
-    <t>PAL001</t>
+    <t>PAL005</t>
   </si>
 </sst>
 </file>
@@ -71,8 +71,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,30 +359,30 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
     </row>
